--- a/ProcessedData/conf_rbf_SVM_video_4.xlsx
+++ b/ProcessedData/conf_rbf_SVM_video_4.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2426513489534728</v>
+        <v>0.2462645391664211</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2206483984121583</v>
+        <v>0.3807149512355468</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03003752220221931</v>
+        <v>0.3730205095980321</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4441279928198653</v>
+        <v>0.2251837830847637</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.16084037115547</v>
+        <v>0.5044405835917296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2814828291212894</v>
+        <v>0.2703756333235068</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2887787807970066</v>
+        <v>0.187754556989872</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3936715419456429</v>
+        <v>0.381266557385912</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06585859293785339</v>
+        <v>0.4309788856242157</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6724089321708661</v>
+        <v>0.7560438536993588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9017853599987604</v>
+        <v>0.1898329358982736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1607963227551469</v>
+        <v>0.05412321040236766</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.540479671933303</v>
+        <v>0.2263841536431781</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1055474953601148</v>
+        <v>0.4533527539180158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04782493995794827</v>
+        <v>0.320263092438806</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.07312711350586215</v>
+        <v>0.4525482855244445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6429936276790753</v>
+        <v>0.4739304176122593</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6419594119679023</v>
+        <v>0.07352129686329592</v>
       </c>
       <c r="E7" t="n">
         <v>28</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1299489693221564</v>
+        <v>0.2778611534414851</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.183370431780669</v>
+        <v>0.3313920019576847</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1453348472760204</v>
+        <v>0.3907468446008302</v>
       </c>
       <c r="E8" t="n">
         <v>28</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2883565818189993</v>
+        <v>0.2680220061094218</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1205781028305585</v>
+        <v>0.4618996498776019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2514937567395396</v>
+        <v>0.270078344012976</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2155591616882629</v>
+        <v>0.3714517173823664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3026907945550587</v>
+        <v>0.4995751459985966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5097915457823903</v>
+        <v>0.1289731366190368</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5540154612739738</v>
+        <v>0.190803464807659</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2206009272223113</v>
+        <v>0.5588213410403762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3935378233598735</v>
+        <v>0.2503751941519647</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3063895108956036</v>
+        <v>0.336000240650413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2695467027978969</v>
+        <v>0.5346195312962885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5559719801463421</v>
+        <v>0.1293802280532987</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3055257708906638</v>
+        <v>0.2364991827711417</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2205198991332758</v>
+        <v>0.4150991055164626</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05557747096673767</v>
+        <v>0.3484017117123958</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4101477628032401</v>
+        <v>0.2189662052568457</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2149325103752427</v>
+        <v>0.4720032113223269</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1855353037766826</v>
+        <v>0.3090305834208276</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2426506803750288</v>
+        <v>0.2462646420415302</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2206483998386309</v>
+        <v>0.380714600500111</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03003839601612496</v>
+        <v>0.3730207574583587</v>
       </c>
       <c r="E15" t="n">
         <v>28</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1869087352818767</v>
+        <v>0.381366371429482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2984259208892889</v>
+        <v>0.4835155825141226</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4638452999590816</v>
+        <v>0.1351180460563957</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2819536591102186</v>
+        <v>0.367437889728397</v>
       </c>
       <c r="C17" t="n">
-        <v>0.682497392737186</v>
+        <v>0.5613014041039268</v>
       </c>
       <c r="D17" t="n">
-        <v>0.708541643233259</v>
+        <v>0.0712607061676761</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2433423452343592</v>
+        <v>0.2476200718855014</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2164662603137735</v>
+        <v>0.3826185112439435</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02311332990679303</v>
+        <v>0.3697614168705551</v>
       </c>
       <c r="E18" t="n">
         <v>28</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2433957649112506</v>
+        <v>0.2436841633531293</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2277247003928364</v>
+        <v>0.3788603520119728</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03787648787964691</v>
+        <v>0.3774554846348979</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.05500589397859287</v>
+        <v>0.357346759544488</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01109935260348099</v>
+        <v>0.3492826284077497</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00833984683833805</v>
+        <v>0.2933706120477626</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2206483984121589</v>
+        <v>0.3807144475535582</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.373020866064463</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4846451243078351</v>
+        <v>0.06655656515271617</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8397443209473368</v>
+        <v>0.2012967212582749</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.6902386392460296</v>
+        <v>0.732146713589009</v>
       </c>
       <c r="E22" t="n">
         <v>29</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.242956751908083</v>
+        <v>0.2460833895428806</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2210334210765759</v>
+        <v>0.3807543468104607</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03011405636865981</v>
+        <v>0.3731622636466587</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2426503956007164</v>
+        <v>0.2462646255455055</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2206485731922986</v>
+        <v>0.3807143922512342</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.03003899878374905</v>
+        <v>0.37302098220326</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4559070395371697</v>
+        <v>0.5784931707025414</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2309220187114745</v>
+        <v>0.2051172244637362</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2613275948984563</v>
+        <v>0.2163896048337222</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2533373365683955</v>
+        <v>0.2386544964494725</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2379085916013512</v>
+        <v>0.3808168291977437</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03764050888163337</v>
+        <v>0.3805286743527837</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9688030879198701</v>
+        <v>0.09768007101265161</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4515374893314881</v>
+        <v>0.6007377855422442</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3105886372481327</v>
+        <v>0.3015821434451041</v>
       </c>
       <c r="E27" t="n">
         <v>29</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.7064725148650591</v>
+        <v>0.06424000842134382</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7892242653875303</v>
+        <v>0.2317749139442881</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.6130270474251994</v>
+        <v>0.703985077634368</v>
       </c>
       <c r="E28" t="n">
         <v>29</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6954248449151695</v>
+        <v>0.1450850162815295</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3447636459427436</v>
+        <v>0.63507320485284</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5503483080600752</v>
+        <v>0.2198417788656305</v>
       </c>
       <c r="E29" t="n">
         <v>29</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2912414681582861</v>
+        <v>0.1641950162393823</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4630547898060084</v>
+        <v>0.3203112004920348</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.261868211616155</v>
+        <v>0.5154937832685828</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.9006333906039784</v>
+        <v>0.03648755768355288</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.9747113255930453</v>
+        <v>0.1840811573545318</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.7839256462083714</v>
+        <v>0.779431284961915</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4708173208219538</v>
+        <v>0.05121183956366605</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9938961004135412</v>
+        <v>0.1901187281094726</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.7285518242281684</v>
+        <v>0.7586694323268615</v>
       </c>
       <c r="E32" t="n">
         <v>29</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.825604823550468</v>
+        <v>0.1093993466326885</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4850942263173156</v>
+        <v>0.6522655201823674</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5071461044880935</v>
+        <v>0.238335133184944</v>
       </c>
       <c r="E33" t="n">
         <v>29</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.179656870160521</v>
+        <v>0.2650318638738026</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1968223111516137</v>
+        <v>0.3627047950393911</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.05534761756220794</v>
+        <v>0.3722633410868064</v>
       </c>
       <c r="E34" t="n">
         <v>29</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2842620974643378</v>
+        <v>0.04376615187906847</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.003979843595439</v>
+        <v>0.09889673696472061</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.123353693306938</v>
+        <v>0.857337111156211</v>
       </c>
       <c r="E35" t="n">
         <v>29</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.407625430423842</v>
+        <v>0.09551678723646299</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.6737422107427693</v>
+        <v>0.1948844033798081</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7045275753172758</v>
+        <v>0.7095988093837287</v>
       </c>
       <c r="E36" t="n">
         <v>29</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.7087972171986028</v>
+        <v>0.08260060697275343</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8415593537517341</v>
+        <v>0.5286728324566806</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1430228493572091</v>
+        <v>0.3887265605705662</v>
       </c>
       <c r="E37" t="n">
         <v>29</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.9191436479567889</v>
+        <v>0.09498069836275763</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.505544177486361</v>
+        <v>0.6339094335502583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4072560056241102</v>
+        <v>0.2711098680869841</v>
       </c>
       <c r="E38" t="n">
         <v>29</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3428854142664197</v>
+        <v>0.234387547308206</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2066134236499069</v>
+        <v>0.4303934029344668</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08805786173708835</v>
+        <v>0.3352190497573271</v>
       </c>
       <c r="E39" t="n">
         <v>29</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.6888707110360563</v>
+        <v>0.02452834113092647</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.497651134446184</v>
+        <v>0.1822713834556903</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7802315248860194</v>
+        <v>0.7932002754133829</v>
       </c>
       <c r="E40" t="n">
         <v>29</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.9304038729402752</v>
+        <v>0.03395261257542267</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.068074727246488</v>
+        <v>0.2463015349515902</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5895817930322637</v>
+        <v>0.7197458524729867</v>
       </c>
       <c r="E41" t="n">
         <v>29</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4966134038244708</v>
+        <v>0.1699026657791791</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3537354594969323</v>
+        <v>0.4501742193878693</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05465227115056</v>
+        <v>0.3799231148329515</v>
       </c>
       <c r="E42" t="n">
         <v>29</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4709944218679243</v>
+        <v>0.06971376312235218</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.7863684900229064</v>
+        <v>0.1580049801305317</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.855965671000128</v>
+        <v>0.7722812567471159</v>
       </c>
       <c r="E43" t="n">
         <v>29</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2226158331012063</v>
+        <v>0.1174351645928491</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.630449918641806</v>
+        <v>0.2043007193666028</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.6347740329232444</v>
+        <v>0.6782641160405481</v>
       </c>
       <c r="E44" t="n">
         <v>29</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.6974077834902566</v>
+        <v>0.1452926955219636</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3412088028619684</v>
+        <v>0.6242079879833893</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5098405637414491</v>
+        <v>0.230499316494647</v>
       </c>
       <c r="E45" t="n">
         <v>29</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1096667303492553</v>
+        <v>0.235923246064734</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3045071975586033</v>
+        <v>0.2955713436499049</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2651174936616865</v>
+        <v>0.4685054102853614</v>
       </c>
       <c r="E46" t="n">
         <v>29</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.7485073222701066</v>
+        <v>0.2036726215428227</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3961333973265352</v>
+        <v>0.7363102022099492</v>
       </c>
       <c r="D47" t="n">
-        <v>1.085714617005062</v>
+        <v>0.06001717624722791</v>
       </c>
       <c r="E47" t="n">
         <v>29</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2206483984121591</v>
+        <v>0.3807144475535581</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03003878117642482</v>
+        <v>0.3730208660644631</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1039840763272064</v>
+        <v>0.02536669814620038</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.538577403591671</v>
+        <v>0.08904527890095593</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.096995400167232</v>
+        <v>0.8855880229528437</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.019205013559753</v>
+        <v>0.05179931185062593</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.8363539937553044</v>
+        <v>0.4075240899811636</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1875214864262773</v>
+        <v>0.5406765981682103</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.9597229094812364</v>
+        <v>0.07024133724224116</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.7089199728177804</v>
+        <v>0.5223961576585435</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08992520689291691</v>
+        <v>0.4073625050992152</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.6305886141979556</v>
+        <v>0.1754866814414977</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2255228431363805</v>
+        <v>0.6029708596606909</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5018400378187781</v>
+        <v>0.2215424588978114</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3600450718214936</v>
+        <v>0.1114078179188769</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.6386608113622911</v>
+        <v>0.256774530101784</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.4842199999520295</v>
+        <v>0.6318176519793395</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.196421861606337</v>
+        <v>0.06055384363179642</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.9920664926229639</v>
+        <v>0.1183698530057022</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.9059901713083356</v>
+        <v>0.821076303362501</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1149781905192427</v>
+        <v>0.2199822311976364</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3445681747526175</v>
+        <v>0.2853848998132999</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3059228805330969</v>
+        <v>0.4946328689890639</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4116536626781904</v>
+        <v>0.04750451954877725</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.006587085232706</v>
+        <v>0.1525747792672306</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.8669660794379241</v>
+        <v>0.7999207011839921</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2837880680537964</v>
+        <v>0.04234803105718105</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.100709925904862</v>
+        <v>0.133629327787442</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.9323109260858198</v>
+        <v>0.824022641155377</v>
       </c>
       <c r="E57" t="n">
         <v>30</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.3395785020026353</v>
+        <v>0.07461722843967204</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.994551230747253</v>
+        <v>0.296043967964236</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3762891542017022</v>
+        <v>0.6293388035960917</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.008292423572716</v>
+        <v>0.03439685706756446</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.9498337110639348</v>
+        <v>0.1614209553775282</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.8717842975366212</v>
+        <v>0.8041821875549072</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.6783105997498919</v>
+        <v>0.0207013392652482</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.398964992793471</v>
+        <v>0.13156973957688</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.9828736837927069</v>
+        <v>0.847728921157872</v>
       </c>
       <c r="E60" t="n">
         <v>30</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.05621932800849355</v>
+        <v>0.3296547705006221</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.08249237242508617</v>
+        <v>0.3396514030963972</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.05735331707780741</v>
+        <v>0.3306938264029807</v>
       </c>
       <c r="E61" t="n">
         <v>30</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1841667636859196</v>
+        <v>0.09145746053012271</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.7673256186526929</v>
+        <v>0.1917452303907147</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6724195204559501</v>
+        <v>0.7167973090791627</v>
       </c>
       <c r="E62" t="n">
         <v>30</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.9786097262583122</v>
+        <v>0.03146277317960169</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.193369763630819</v>
+        <v>0.3062495540510598</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.4342022815347323</v>
+        <v>0.6622876727693388</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8056667930858588</v>
+        <v>0.03052949924767602</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.109437744317186</v>
+        <v>0.1722353798324184</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8230290515587592</v>
+        <v>0.7972351209199054</v>
       </c>
       <c r="E64" t="n">
         <v>30</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1152906841603175</v>
+        <v>0.05518961447977861</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.194382064010223</v>
+        <v>0.1613720581914828</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.7202138524787562</v>
+        <v>0.7834383273287387</v>
       </c>
       <c r="E65" t="n">
         <v>30</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.226214205009875</v>
+        <v>0.03356867743404367</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.111808746401104</v>
+        <v>0.5087406490349997</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01087043888348255</v>
+        <v>0.4576906735309567</v>
       </c>
       <c r="E66" t="n">
         <v>30</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5130059248498336</v>
+        <v>0.08696516421305125</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7103988503159854</v>
+        <v>0.24505808276509</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.5490082719196688</v>
+        <v>0.6679767530218588</v>
       </c>
       <c r="E67" t="n">
         <v>30</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9092399302331829</v>
+        <v>0.1049190627175337</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.4345458156914563</v>
+        <v>0.6216390877922816</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3870950991965694</v>
+        <v>0.2734418494901846</v>
       </c>
       <c r="E68" t="n">
         <v>30</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.5685301536276423</v>
+        <v>0.1130797249876253</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.6230610686993463</v>
+        <v>0.4630414979891666</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03522012974475212</v>
+        <v>0.4238787770232079</v>
       </c>
       <c r="E69" t="n">
         <v>30</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.8198988240705848</v>
+        <v>0.09927589334577831</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.5704750511338423</v>
+        <v>0.6328403780154632</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4275270553272071</v>
+        <v>0.2678837286387584</v>
       </c>
       <c r="E70" t="n">
         <v>30</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9213416439888351</v>
+        <v>0.05674272315354904</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.8429315139931863</v>
+        <v>0.3956184240341107</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.2060093022809256</v>
+        <v>0.5476388528123401</v>
       </c>
       <c r="E71" t="n">
         <v>30</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.05200363809765673</v>
+        <v>0.04249546283976172</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.174989993508124</v>
+        <v>0.123465262138196</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.9371444440441915</v>
+        <v>0.8340392750220423</v>
       </c>
       <c r="E72" t="n">
         <v>30</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.6228223037318691</v>
+        <v>0.03761515178810281</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.427037364666002</v>
+        <v>0.2615558222354159</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.525630509672288</v>
+        <v>0.7008290259764812</v>
       </c>
       <c r="E73" t="n">
         <v>30</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9735157409396062</v>
+        <v>0.06296970658723532</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.9676424905768068</v>
+        <v>0.6851678546325759</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4883582834590575</v>
+        <v>0.2518624387801889</v>
       </c>
       <c r="E74" t="n">
         <v>30</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.8367141394106904</v>
+        <v>0.06919754059930158</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.8302763389308199</v>
+        <v>0.4967841386682367</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03978067526002333</v>
+        <v>0.4340183207324617</v>
       </c>
       <c r="E75" t="n">
         <v>30</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.079219594116308</v>
+        <v>0.02430348945019057</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.274169565522695</v>
+        <v>0.281517598505539</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.5024390875585683</v>
+        <v>0.6941789120442704</v>
       </c>
       <c r="E76" t="n">
         <v>30</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.8664372453797153</v>
+        <v>0.1673885933926658</v>
       </c>
       <c r="C77" t="n">
-        <v>0.183607286995546</v>
+        <v>0.7402580260101045</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9163035492149634</v>
+        <v>0.09235338059722947</v>
       </c>
       <c r="E77" t="n">
         <v>30</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.04683960897243467</v>
+        <v>0.05596954776047356</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.268995170248702</v>
+        <v>0.1965081929750729</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.6258092629449139</v>
+        <v>0.7475222592644536</v>
       </c>
       <c r="E78" t="n">
         <v>30</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7072612300528213</v>
+        <v>0.1672613679896383</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.1967591748133923</v>
+        <v>0.6085721956547523</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4716972161081245</v>
+        <v>0.2241664363556093</v>
       </c>
       <c r="E79" t="n">
         <v>30</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1451686515339404</v>
+        <v>0.3204103873718924</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1876919273962989</v>
+        <v>0.2411623306652052</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.3446016396752848</v>
+        <v>0.4384272819629024</v>
       </c>
       <c r="E80" t="n">
         <v>30</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.06873302839438</v>
+        <v>0.02471657457894979</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.264775434096488</v>
+        <v>0.2819776322376153</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.5008435121825758</v>
+        <v>0.6933057931834348</v>
       </c>
       <c r="E81" t="n">
         <v>30</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03601763970791214</v>
+        <v>0.04487607880002687</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.151258401924415</v>
+        <v>0.1194195397163793</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.9383946411907018</v>
+        <v>0.8357043814835939</v>
       </c>
       <c r="E82" t="n">
         <v>30</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6381377328373979</v>
+        <v>0.04152949056684904</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.015413039925327</v>
+        <v>0.176254492467342</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.7965551477560707</v>
+        <v>0.782216016965809</v>
       </c>
       <c r="E83" t="n">
         <v>30</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.6569930514059589</v>
+        <v>0.02522219554148736</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.35951226201678</v>
+        <v>0.159809138754572</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.8614042649181094</v>
+        <v>0.8149686657039404</v>
       </c>
       <c r="E84" t="n">
         <v>30</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.5826213920609843</v>
+        <v>0.1194114752491579</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.5607164583025095</v>
+        <v>0.4431932750325638</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01316526563820841</v>
+        <v>0.4373952497182785</v>
       </c>
       <c r="E85" t="n">
         <v>30</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1302953610059355</v>
+        <v>0.0877998470646147</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.739525668037315</v>
+        <v>0.1179875741321078</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.004759766658323</v>
+        <v>0.7942125788032778</v>
       </c>
       <c r="E86" t="n">
         <v>30</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2616850025430563</v>
+        <v>0.03300809761510062</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.331013002093513</v>
+        <v>0.09306641731844731</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.034496959082283</v>
+        <v>0.8739254850664521</v>
       </c>
       <c r="E87" t="n">
         <v>30</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.104268448273318</v>
+        <v>0.01578769436633383</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.349519089438797</v>
+        <v>0.1648358482621519</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.8630724618255046</v>
+        <v>0.819376457371514</v>
       </c>
       <c r="E88" t="n">
         <v>30</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3463686345419897</v>
+        <v>0.1429152160978303</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.5401589654074084</v>
+        <v>0.3581345762569351</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1734544919606099</v>
+        <v>0.4989502076452345</v>
       </c>
       <c r="E89" t="n">
         <v>30</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.7801986429721005</v>
+        <v>0.03809483258626053</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.101538290431271</v>
+        <v>0.2473438236834286</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5775618893359094</v>
+        <v>0.7145613437303111</v>
       </c>
       <c r="E90" t="n">
         <v>30</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.057902985688552</v>
+        <v>0.08305846657468793</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.5297460643695306</v>
+        <v>0.4962689783992505</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03071825373732123</v>
+        <v>0.4206725550260613</v>
       </c>
       <c r="E91" t="n">
         <v>30</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1536419761234556</v>
+        <v>0.1882169079407897</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.4156010418361303</v>
+        <v>0.2456171212919409</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4671457241222922</v>
+        <v>0.5661659707672695</v>
       </c>
       <c r="E92" t="n">
         <v>30</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.052425500840787</v>
+        <v>0.02022151034995891</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.380174488950906</v>
+        <v>0.2317170748114426</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.6407239216884678</v>
+        <v>0.7480614148385984</v>
       </c>
       <c r="E93" t="n">
         <v>30</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.016689550430999</v>
+        <v>0.04490309925611711</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.037999078275732</v>
+        <v>0.4596387012284905</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0769162774797619</v>
+        <v>0.4954581995153922</v>
       </c>
       <c r="E94" t="n">
         <v>30</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.2292215279459536</v>
+        <v>0.06656449655995714</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.002012744294804</v>
+        <v>0.2178379842560694</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5916093368198193</v>
+        <v>0.7155975191839737</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2206483984121589</v>
+        <v>0.3807144475535582</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.373020866064463</v>
       </c>
       <c r="E96" t="n">
         <v>31</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.2426847576422935</v>
+        <v>0.2462147857294228</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.220776069257267</v>
+        <v>0.3806886880010171</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.03016533787783965</v>
+        <v>0.3730965262695601</v>
       </c>
       <c r="E97" t="n">
         <v>31</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.2426503959000965</v>
+        <v>0.2456425969479566</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.2224348428622822</v>
+        <v>0.3801493695823818</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.03226101369297738</v>
+        <v>0.3742080334696616</v>
       </c>
       <c r="E98" t="n">
         <v>31</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.7647690389197869</v>
+        <v>0.1057039809132082</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.6178992648541117</v>
+        <v>0.7020456767243131</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6862227048978093</v>
+        <v>0.1922503423624786</v>
       </c>
       <c r="E99" t="n">
         <v>31</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.242650411783404</v>
+        <v>0.2462643252321103</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.2206494287954697</v>
+        <v>0.3807141301634882</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.03004004237280043</v>
+        <v>0.3730215446044017</v>
       </c>
       <c r="E100" t="n">
         <v>31</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2426512002048406</v>
+        <v>0.2457999919713052</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2219825013965514</v>
+        <v>0.3802917466445143</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.0317016864703825</v>
+        <v>0.3739082613841806</v>
       </c>
       <c r="E101" t="n">
         <v>31</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.2444323813103007</v>
+        <v>0.1932746096683526</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.3817094521560026</v>
+        <v>0.3219117796940327</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.2354671108861713</v>
+        <v>0.4848136106376146</v>
       </c>
       <c r="E102" t="n">
         <v>31</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.242816579090324</v>
+        <v>0.2313423810732862</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.2630455967023509</v>
+        <v>0.3671754962233865</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.08264766144504571</v>
+        <v>0.4014821227033273</v>
       </c>
       <c r="E103" t="n">
         <v>31</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.2426515373294783</v>
+        <v>0.2462628442629547</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2206531896078627</v>
+        <v>0.3807135779053344</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.03004307950104012</v>
+        <v>0.3730235778317109</v>
       </c>
       <c r="E104" t="n">
         <v>31</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.2426508006286554</v>
+        <v>0.2275738961540957</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.2792694362386512</v>
+        <v>0.3599951673881551</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1027720145679745</v>
+        <v>0.4124309364577495</v>
       </c>
       <c r="E105" t="n">
         <v>31</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2426506231187737</v>
+        <v>0.2462646512496416</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.2206483984128043</v>
+        <v>0.3807145677621204</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.03003848070196883</v>
+        <v>0.3730207809882377</v>
       </c>
       <c r="E106" t="n">
         <v>31</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3066745647885061</v>
+        <v>0.2361769475724894</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2214493391775686</v>
+        <v>0.4186284156164379</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06757827626507726</v>
+        <v>0.3451946368110725</v>
       </c>
       <c r="E107" t="n">
         <v>31</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462621863164577</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2206555809678326</v>
+        <v>0.3807121758431585</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.03004772039926063</v>
+        <v>0.3730256378403839</v>
       </c>
       <c r="E108" t="n">
         <v>31</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3724807783622877</v>
+        <v>0.2187124010573574</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2457795875573625</v>
+        <v>0.4516025132290623</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1399940393097885</v>
+        <v>0.3296850857135801</v>
       </c>
       <c r="E109" t="n">
         <v>31</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.006907289856530302</v>
+        <v>0.1677352821105259</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.5053370178764016</v>
+        <v>0.1954104955661164</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.6084123198644142</v>
+        <v>0.6368542223233578</v>
       </c>
       <c r="E110" t="n">
         <v>31</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.03496659922019316</v>
+        <v>0.404878927084077</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1391832309006881</v>
+        <v>0.3847186145498258</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1752739988922684</v>
+        <v>0.2104024583660972</v>
       </c>
       <c r="E111" t="n">
         <v>31</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.2424266116053324</v>
+        <v>0.2451217403146284</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.2240348844808533</v>
+        <v>0.3795818510506869</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.03433548683941471</v>
+        <v>0.3752964086346844</v>
       </c>
       <c r="E112" t="n">
         <v>31</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2122560900416574</v>
+        <v>0.1741867368766572</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.5119327380769854</v>
+        <v>0.1572124540324179</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.7121878109066619</v>
+        <v>0.6686008090909246</v>
       </c>
       <c r="E113" t="n">
         <v>31</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1874675433558677</v>
+        <v>0.1131417126270047</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.6750325789469924</v>
+        <v>0.2255540387792408</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.548895202352682</v>
+        <v>0.6613042485937545</v>
       </c>
       <c r="E114" t="n">
         <v>31</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.242650156612631</v>
+        <v>0.246264806691305</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.2206481594201299</v>
+        <v>0.3807144017955537</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0300387811781887</v>
+        <v>0.3730207915131414</v>
       </c>
       <c r="E115" t="n">
         <v>31</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9257745485974687</v>
+        <v>0.8255982216862906</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7822127836505182</v>
+        <v>0.11193999213419</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.3068957123761174</v>
+        <v>0.06246178617951931</v>
       </c>
       <c r="E116" t="n">
         <v>31</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.06337324856435597</v>
+        <v>0.3891246827715166</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.005151884033564175</v>
+        <v>0.2783676876616698</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2509562296647789</v>
+        <v>0.3325076295668136</v>
       </c>
       <c r="E117" t="n">
         <v>32</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.6458410950654851</v>
+        <v>0.1365166169465559</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.4302121037074562</v>
+        <v>0.4855225425884438</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09599589801143557</v>
+        <v>0.3779608404650001</v>
       </c>
       <c r="E118" t="n">
         <v>32</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2584804432810069</v>
+        <v>0.506251937666095</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1835804694626331</v>
+        <v>0.2738695112443071</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.04706209243888183</v>
+        <v>0.2198785510895978</v>
       </c>
       <c r="E119" t="n">
         <v>32</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9940280531878058</v>
+        <v>0.7993516097507778</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5877015669737817</v>
+        <v>0.1178839760849684</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.01312321600071145</v>
+        <v>0.08276441416425374</v>
       </c>
       <c r="E120" t="n">
         <v>32</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.031990178562705</v>
+        <v>0.7936423664403479</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4952896403236809</v>
+        <v>0.09178532421675141</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.4882328574217207</v>
+        <v>0.1145723093429009</v>
       </c>
       <c r="E121" t="n">
         <v>32</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.308833873262813</v>
+        <v>0.2319106080894592</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.2290243044429016</v>
+        <v>0.4154558934183009</v>
       </c>
       <c r="D122" t="n">
-        <v>0.04911145612441371</v>
+        <v>0.3526334984922401</v>
       </c>
       <c r="E122" t="n">
         <v>32</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.101997899264048</v>
+        <v>0.8777851926012252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.115209394673814</v>
+        <v>0.09075078215230015</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.152020565069526</v>
+        <v>0.03146402524647441</v>
       </c>
       <c r="E123" t="n">
         <v>32</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.2206483984121589</v>
+        <v>0.3807144475535582</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.373020866064463</v>
       </c>
       <c r="E124" t="n">
         <v>32</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9207748578826873</v>
+        <v>0.8112875779888805</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7761035360727033</v>
+        <v>0.1363438803280866</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2044864731159954</v>
+        <v>0.05236854168303288</v>
       </c>
       <c r="E125" t="n">
         <v>32</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.2426874938870979</v>
+        <v>0.2462040932895173</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.220805785669181</v>
+        <v>0.3806824044020197</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.03019254269957866</v>
+        <v>0.3731135023084631</v>
       </c>
       <c r="E126" t="n">
         <v>32</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.025394824337948</v>
+        <v>0.8012854666863106</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5260853428741767</v>
+        <v>0.09262618355594643</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.4764124938044086</v>
+        <v>0.1060883497577431</v>
       </c>
       <c r="E127" t="n">
         <v>32</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1115787325466347</v>
+        <v>0.3571869221190903</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04068638796607577</v>
+        <v>0.4428028089040998</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4048347622541831</v>
+        <v>0.20001026897681</v>
       </c>
       <c r="E128" t="n">
         <v>32</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.2336287078611275</v>
+        <v>0.2432047890668444</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.251362501235092</v>
+        <v>0.4386116472407879</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1923157141745515</v>
+        <v>0.3181835636923676</v>
       </c>
       <c r="E129" t="n">
         <v>32</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1782632408063586</v>
+        <v>0.2857327173897881</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.146668093059829</v>
+        <v>0.4141633563233418</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1631556909260255</v>
+        <v>0.30010392628687</v>
       </c>
       <c r="E130" t="n">
         <v>32</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3001751374785899</v>
+        <v>0.09545225617696403</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.6974898763864508</v>
+        <v>0.1777278904452657</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.752682017263485</v>
+        <v>0.7268198533777703</v>
       </c>
       <c r="E131" t="n">
         <v>32</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.704415069032992</v>
+        <v>0.140298560285539</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.3670079235001077</v>
+        <v>0.5879898642498917</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3784974183166864</v>
+        <v>0.2717115754645692</v>
       </c>
       <c r="E132" t="n">
         <v>32</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.2427441265359288</v>
+        <v>0.2418895768114885</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.2332516992222601</v>
+        <v>0.3775904261613164</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.04256738276934457</v>
+        <v>0.3805199970271949</v>
       </c>
       <c r="E133" t="n">
         <v>32</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3499697289914259</v>
+        <v>0.2154973221322848</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.2645287566752987</v>
+        <v>0.4173146603081336</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0317373337422318</v>
+        <v>0.3671880175595815</v>
       </c>
       <c r="E134" t="n">
         <v>32</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.537801887180008</v>
+        <v>0.6333605294388317</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3402496040962676</v>
+        <v>0.2056042043232108</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.08145712709192157</v>
+        <v>0.1610352662379577</v>
       </c>
       <c r="E135" t="n">
         <v>32</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.04608306356643146</v>
+        <v>0.2184748206590071</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.3603958550998647</v>
+        <v>0.2179174771084188</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.5422855986454818</v>
+        <v>0.5636077022325741</v>
       </c>
       <c r="E136" t="n">
         <v>32</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4562121743445002</v>
+        <v>0.2060685381697098</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.4491439369319405</v>
+        <v>0.09974839461389796</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.9941424084920722</v>
+        <v>0.6941830672163924</v>
       </c>
       <c r="E137" t="n">
         <v>32</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9369012326313155</v>
+        <v>0.7908357190607963</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5293864057345881</v>
+        <v>0.1011412896717455</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.5309579987281811</v>
+        <v>0.1080229912674583</v>
       </c>
       <c r="E138" t="n">
         <v>32</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2426503955552686</v>
+        <v>0.2462646864075568</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.2206483983613483</v>
+        <v>0.38071444754383</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.3730208660486131</v>
       </c>
       <c r="E139" t="n">
         <v>32</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1275487247206412</v>
+        <v>0.3010577772739845</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1184207125664586</v>
+        <v>0.3596543432789838</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.03422649830722931</v>
+        <v>0.3392878794470314</v>
       </c>
       <c r="E140" t="n">
         <v>32</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4034313147160965</v>
+        <v>0.6454238171029943</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6523626428722717</v>
+        <v>0.2791374990357871</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3753069335352353</v>
+        <v>0.07543868386121852</v>
       </c>
       <c r="E141" t="n">
         <v>32</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03927022008484857</v>
+        <v>0.3877926865317137</v>
       </c>
       <c r="C142" t="n">
-        <v>0.00129818106396476</v>
+        <v>0.2766191567291715</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.2851446019430058</v>
+        <v>0.3355881567391149</v>
       </c>
       <c r="E142" t="n">
         <v>32</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6405578907166628</v>
+        <v>0.7273546606343559</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6763593375759618</v>
+        <v>0.2089216154489578</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3896637482818043</v>
+        <v>0.06372372391668613</v>
       </c>
       <c r="E143" t="n">
         <v>32</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4427072706962113</v>
+        <v>0.6416485929003424</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4998331151969013</v>
+        <v>0.2673979037531895</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4199070585636581</v>
+        <v>0.0909535033464679</v>
       </c>
       <c r="E144" t="n">
         <v>32</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.2426503955926787</v>
+        <v>0.2462609239205802</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2206592076124494</v>
+        <v>0.3807110276268987</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.03005223834050588</v>
+        <v>0.3730280484525209</v>
       </c>
       <c r="E145" t="n">
         <v>32</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.2426879836531501</v>
+        <v>0.2462591256211941</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.220647700438784</v>
+        <v>0.3807345428806806</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02998821715011944</v>
+        <v>0.3730063314981252</v>
       </c>
       <c r="E146" t="n">
         <v>32</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5763218815876342</v>
+        <v>0.4915399745098244</v>
       </c>
       <c r="C147" t="n">
-        <v>0.001493687041501879</v>
+        <v>0.141829891527621</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.6276367817250514</v>
+        <v>0.3666301339625547</v>
       </c>
       <c r="E147" t="n">
         <v>32</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7977904178989388</v>
+        <v>0.1542935637071792</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.5858442883958876</v>
+        <v>0.09665919460290817</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.8702786248529347</v>
+        <v>0.7490472416899129</v>
       </c>
       <c r="E148" t="n">
         <v>32</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.6900727894665628</v>
+        <v>0.2094817373372245</v>
       </c>
       <c r="C149" t="n">
-        <v>0.04684380850705089</v>
+        <v>0.5863470400838948</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3740169409087774</v>
+        <v>0.2041712225788806</v>
       </c>
       <c r="E149" t="n">
         <v>32</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6715916788132135</v>
+        <v>0.4511423231654447</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.07354528259953691</v>
+        <v>0.1674715731177818</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.3240518341281678</v>
+        <v>0.3813861037167733</v>
       </c>
       <c r="E150" t="n">
         <v>32</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5796155790862858</v>
+        <v>0.6949405246928397</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5514075060694905</v>
+        <v>0.2300932137484041</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5017604060443495</v>
+        <v>0.07496626155875603</v>
       </c>
       <c r="E151" t="n">
         <v>32</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.720652528247516</v>
+        <v>0.5311712133912929</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04217986556809245</v>
+        <v>0.1463575627463777</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.4089149144746071</v>
+        <v>0.3224712238623296</v>
       </c>
       <c r="E152" t="n">
         <v>32</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.2426503955725361</v>
+        <v>0.2462646863988644</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.2206483983786158</v>
+        <v>0.3807144475471361</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.3730208660539996</v>
       </c>
       <c r="E153" t="n">
         <v>32</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3165459634718748</v>
+        <v>0.5893545253964</v>
       </c>
       <c r="C154" t="n">
-        <v>0.447379938338524</v>
+        <v>0.3021283636095959</v>
       </c>
       <c r="D154" t="n">
-        <v>0.349270860242167</v>
+        <v>0.1085171109940039</v>
       </c>
       <c r="E154" t="n">
         <v>33</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.2419992398894948</v>
+        <v>0.2325178063201742</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.2603018563673504</v>
+        <v>0.3693058826735293</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.07434583485215898</v>
+        <v>0.3981763110062964</v>
       </c>
       <c r="E155" t="n">
         <v>33</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6129069111388695</v>
+        <v>0.02470921468784114</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.569130414447189</v>
+        <v>0.1718967414974349</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.811656730490959</v>
+        <v>0.803394043814724</v>
       </c>
       <c r="E156" t="n">
         <v>33</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.2426503955994715</v>
+        <v>0.2462639177532689</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.2206506066251722</v>
+        <v>0.3807137489581303</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.03004153011959615</v>
+        <v>0.3730223332886007</v>
       </c>
       <c r="E157" t="n">
         <v>33</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.577188274349427</v>
+        <v>0.06078169875802049</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.8468146352867856</v>
+        <v>0.1959463392691272</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.7196488589334</v>
+        <v>0.7432719619728522</v>
       </c>
       <c r="E158" t="n">
         <v>33</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.14194091529647</v>
+        <v>0.05649888921363824</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.8540809277202677</v>
+        <v>0.7986416840673533</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8540644410993166</v>
+        <v>0.1448594267190086</v>
       </c>
       <c r="E159" t="n">
         <v>33</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.015775185321444</v>
+        <v>0.02940908438676648</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.01466870725959</v>
+        <v>0.1540052258564053</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.9015082974760866</v>
+        <v>0.816585689756828</v>
       </c>
       <c r="E160" t="n">
         <v>33</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.9289710355451508</v>
+        <v>0.03511105683673125</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.9935930112786855</v>
+        <v>0.1963962651504265</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.7427736827179235</v>
+        <v>0.7684926780128424</v>
       </c>
       <c r="E161" t="n">
         <v>33</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5560666434909646</v>
+        <v>0.1365862558304609</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.4755144976205395</v>
+        <v>0.4182416179880974</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.06285760828232678</v>
+        <v>0.4451721261814418</v>
       </c>
       <c r="E162" t="n">
         <v>33</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.3124256998387194</v>
+        <v>0.1593721285380565</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.4834048078967692</v>
+        <v>0.354218137857583</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1678377776483451</v>
+        <v>0.4864097336043604</v>
       </c>
       <c r="E163" t="n">
         <v>33</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.9901734308790238</v>
+        <v>0.03281140832291544</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.278549997756203</v>
+        <v>0.3555896195615167</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.3159498341171854</v>
+        <v>0.6115989721155678</v>
       </c>
       <c r="E164" t="n">
         <v>33</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.8903888586364588</v>
+        <v>0.09765366797290709</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.515048392702719</v>
+        <v>0.510616415674911</v>
       </c>
       <c r="D165" t="n">
-        <v>0.09150632611217199</v>
+        <v>0.3917299163521819</v>
       </c>
       <c r="E165" t="n">
         <v>33</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05274956778247111</v>
+        <v>0.307556505359543</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1866356663140935</v>
+        <v>0.2737987249830401</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2571047024830625</v>
+        <v>0.4186447696574168</v>
       </c>
       <c r="E166" t="n">
         <v>33</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8043122622174582</v>
+        <v>0.075270092676768</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.7875058283789103</v>
+        <v>0.5007686962439809</v>
       </c>
       <c r="D167" t="n">
-        <v>0.05811251364178587</v>
+        <v>0.4239612110792512</v>
       </c>
       <c r="E167" t="n">
         <v>33</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.7839642070417768</v>
+        <v>0.08466202076142702</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.6461425929491132</v>
+        <v>0.3498494453897263</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.291690198820814</v>
+        <v>0.5654885338488466</v>
       </c>
       <c r="E168" t="n">
         <v>33</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.6155611657281133</v>
+        <v>0.02050046600132965</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.62067388159119</v>
+        <v>0.1432222518150591</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.9262152367613514</v>
+        <v>0.8362772821836113</v>
       </c>
       <c r="E169" t="n">
         <v>33</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.7495059255429009</v>
+        <v>0.1195819415562699</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.4590700570735201</v>
+        <v>0.5649387907666256</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2741633885447188</v>
+        <v>0.3154792676771045</v>
       </c>
       <c r="E170" t="n">
         <v>33</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.2807657779854335</v>
+        <v>0.1962678752065347</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.3609921894587953</v>
+        <v>0.3504006575293755</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1568890517426349</v>
+        <v>0.4533314672640896</v>
       </c>
       <c r="E171" t="n">
         <v>33</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.6750221962458794</v>
+        <v>0.05727513497766774</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.9846349132417072</v>
+        <v>0.3308987918532761</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.3408236163092848</v>
+        <v>0.6118260731690562</v>
       </c>
       <c r="E172" t="n">
         <v>33</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.3504050627900337</v>
+        <v>0.1158666464636462</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.6345351110918925</v>
+        <v>0.2847896491322139</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.3955554013177408</v>
+        <v>0.5993437044041398</v>
       </c>
       <c r="E173" t="n">
         <v>33</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.992551116782052</v>
+        <v>0.03402528589074967</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.107406112558673</v>
+        <v>0.3106895616180923</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.4224155118501407</v>
+        <v>0.6552851524911579</v>
       </c>
       <c r="E174" t="n">
         <v>33</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2199096838619679</v>
+        <v>0.3654384935313742</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.1290813320212288</v>
+        <v>0.2992238873255458</v>
       </c>
       <c r="D175" t="n">
-        <v>0.02228060932580312</v>
+        <v>0.3353376191430801</v>
       </c>
       <c r="E175" t="n">
         <v>33</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.2206483984121589</v>
+        <v>0.3807144475535582</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.373020866064463</v>
       </c>
       <c r="E176" t="n">
         <v>33</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2706553151265524</v>
+        <v>0.07464903886369574</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.830042007142086</v>
+        <v>0.1724392884976234</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.7653099828508132</v>
+        <v>0.7529116726386808</v>
       </c>
       <c r="E177" t="n">
         <v>33</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.8257257943727989</v>
+        <v>0.04171630111596471</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.079286112259266</v>
+        <v>0.3023519147102996</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.4314268209710113</v>
+        <v>0.6559317841737359</v>
       </c>
       <c r="E178" t="n">
         <v>33</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.649439118821763</v>
+        <v>0.05743572409500497</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.9634508822326742</v>
+        <v>0.3041744957149077</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.4059171688505351</v>
+        <v>0.6383897801900875</v>
       </c>
       <c r="E179" t="n">
         <v>33</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.3509505500185634</v>
+        <v>0.09257479357903682</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.7104105076989881</v>
+        <v>0.1996420482322598</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.6766708380512154</v>
+        <v>0.7077831581887032</v>
       </c>
       <c r="E180" t="n">
         <v>33</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.9379684724666378</v>
+        <v>0.04831191658000367</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.075762180919158</v>
+        <v>0.4675917181769854</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.05278181020488758</v>
+        <v>0.484096365243011</v>
       </c>
       <c r="E181" t="n">
         <v>33</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2088183463645434</v>
+        <v>0.07030470394349585</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.9647760529080927</v>
+        <v>0.2158855250269085</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.5931696828312536</v>
+        <v>0.7138097710295959</v>
       </c>
       <c r="E182" t="n">
         <v>33</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4207284617115364</v>
+        <v>0.03171648529775818</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.365255215824995</v>
+        <v>0.1571639526376788</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.8476519631398315</v>
+        <v>0.8111195620645631</v>
       </c>
       <c r="E183" t="n">
         <v>33</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.2206483984121589</v>
+        <v>0.3807144475535582</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.373020866064463</v>
       </c>
       <c r="E184" t="n">
         <v>34</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.2426923755870974</v>
+        <v>0.236323988232491</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.2489992190805899</v>
+        <v>0.371676702502548</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.06527753572844477</v>
+        <v>0.3919993092649608</v>
       </c>
       <c r="E185" t="n">
         <v>34</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8356741179153944</v>
+        <v>0.7738799359755931</v>
       </c>
       <c r="C186" t="n">
-        <v>0.6339277202282192</v>
+        <v>0.1553065060354548</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2177871869911107</v>
+        <v>0.07081355798895231</v>
       </c>
       <c r="E186" t="n">
         <v>34</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.4029411319911804</v>
+        <v>0.3189338167421841</v>
       </c>
       <c r="C187" t="n">
-        <v>0.6654633052239129</v>
+        <v>0.6286120419661653</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9766951511214321</v>
+        <v>0.05245414129165075</v>
       </c>
       <c r="E187" t="n">
         <v>34</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.3003925661528869</v>
+        <v>0.2373180421232971</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.220495306878858</v>
+        <v>0.4122897716725264</v>
       </c>
       <c r="D188" t="n">
-        <v>0.04869477000208994</v>
+        <v>0.3503921862041764</v>
       </c>
       <c r="E188" t="n">
         <v>34</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8009650274793838</v>
+        <v>0.60901182228168</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1308846939101459</v>
+        <v>0.09706789280179293</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.8985006861814796</v>
+        <v>0.2939202849165271</v>
       </c>
       <c r="E189" t="n">
         <v>34</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.2644567713195813</v>
+        <v>0.2463757799697797</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.2124333778763078</v>
+        <v>0.3945937187342398</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0105018621244367</v>
+        <v>0.3590305012959804</v>
       </c>
       <c r="E190" t="n">
         <v>34</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.115774045845465</v>
+        <v>0.8703416996343042</v>
       </c>
       <c r="C191" t="n">
-        <v>0.95397259410186</v>
+        <v>0.09016813920034235</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1472728122758988</v>
+        <v>0.03949016116535345</v>
       </c>
       <c r="E191" t="n">
         <v>34</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.7684037923155929</v>
+        <v>0.4895299849213822</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.04060371761095236</v>
+        <v>0.0935765208785225</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.9433163839372196</v>
+        <v>0.4168934942000953</v>
       </c>
       <c r="E192" t="n">
         <v>34</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.2779950162440159</v>
+        <v>0.2679314560073779</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.1578052826297382</v>
+        <v>0.2976947825490052</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.3566573617094247</v>
+        <v>0.4343737614436167</v>
       </c>
       <c r="E193" t="n">
         <v>34</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.029173959507601</v>
+        <v>0.8441015236696088</v>
       </c>
       <c r="C194" t="n">
-        <v>0.8297782470080104</v>
+        <v>0.1038350073736003</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.1312017465165822</v>
+        <v>0.05206346895679084</v>
       </c>
       <c r="E194" t="n">
         <v>34</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.4639829683814742</v>
+        <v>0.2129974813677389</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.1970802329611179</v>
+        <v>0.5092439970563757</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2815609913400314</v>
+        <v>0.2777585215758854</v>
       </c>
       <c r="E195" t="n">
         <v>34</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4106524905838935</v>
+        <v>0.5578503016780252</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1740835721228743</v>
+        <v>0.1795217383113893</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.5430829944499189</v>
+        <v>0.2626279600105855</v>
       </c>
       <c r="E196" t="n">
         <v>34</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.2431660443738927</v>
+        <v>0.246259091952985</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.2204357489569028</v>
+        <v>0.3810558704234947</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.02908687846280899</v>
+        <v>0.3726850376235201</v>
       </c>
       <c r="E197" t="n">
         <v>34</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.213881485528577</v>
+        <v>0.8844854891442957</v>
       </c>
       <c r="C198" t="n">
-        <v>1.008163271062475</v>
+        <v>0.08958115906492238</v>
       </c>
       <c r="D198" t="n">
-        <v>0.362530289049509</v>
+        <v>0.02593335179078162</v>
       </c>
       <c r="E198" t="n">
         <v>34</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.1932691193113624</v>
+        <v>0.2726071483928229</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1712671220811907</v>
+        <v>0.3704617896695377</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.03003878112851274</v>
+        <v>0.3569310619376393</v>
       </c>
       <c r="E199" t="n">
         <v>34</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.04791573609436336</v>
+        <v>0.3696806517231112</v>
       </c>
       <c r="C200" t="n">
-        <v>0.02028785425111568</v>
+        <v>0.3564126285737465</v>
       </c>
       <c r="D200" t="n">
-        <v>0.03293382946306791</v>
+        <v>0.2739067197031421</v>
       </c>
       <c r="E200" t="n">
         <v>34</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.3286613304889976</v>
+        <v>0.3478852310642652</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6670076175695088</v>
+        <v>0.5922606365330227</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8630914296472993</v>
+        <v>0.05985413240271203</v>
       </c>
       <c r="E201" t="n">
         <v>34</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9234820149566549</v>
+        <v>0.8279846449154102</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9830385213081503</v>
+        <v>0.1454695659258287</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6430104404708976</v>
+        <v>0.0265457891587613</v>
       </c>
       <c r="E202" t="n">
         <v>34</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2425695654642089</v>
+        <v>0.2463678967166082</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.2203879160983223</v>
+        <v>0.3807554525622053</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.02981641799727095</v>
+        <v>0.3728766507211864</v>
       </c>
       <c r="E203" t="n">
         <v>34</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.038523068668502</v>
+        <v>0.8618325796390055</v>
       </c>
       <c r="C204" t="n">
-        <v>1.371154749751632</v>
+        <v>0.1198743048046275</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5010374641699624</v>
+        <v>0.01829311555636706</v>
       </c>
       <c r="E204" t="n">
         <v>34</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9778214548967605</v>
+        <v>0.8478655288878507</v>
       </c>
       <c r="C205" t="n">
-        <v>1.294564587807424</v>
+        <v>0.1270674602812836</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3046846571873343</v>
+        <v>0.02506701083086564</v>
       </c>
       <c r="E205" t="n">
         <v>34</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.9060775877261371</v>
+        <v>0.8237282239797127</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9965620039746728</v>
+        <v>0.1375698392060412</v>
       </c>
       <c r="D206" t="n">
-        <v>0.1831843588497631</v>
+        <v>0.03870193681424643</v>
       </c>
       <c r="E206" t="n">
         <v>34</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.1567148795290509</v>
+        <v>0.3059796535429095</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.09477312879053243</v>
+        <v>0.3860795206782219</v>
       </c>
       <c r="D207" t="n">
-        <v>0.06457052420933443</v>
+        <v>0.3079408257788686</v>
       </c>
       <c r="E207" t="n">
         <v>34</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.6361065479045152</v>
+        <v>0.1791967835035488</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.1978828175243629</v>
+        <v>0.6062384762337489</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5148469464799835</v>
+        <v>0.2145647402627019</v>
       </c>
       <c r="E208" t="n">
         <v>34</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3589113986089677</v>
+        <v>0.4245331777061623</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.06782478544903789</v>
+        <v>0.1464389908137545</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.8093347358168085</v>
+        <v>0.4290278314800834</v>
       </c>
       <c r="E209" t="n">
         <v>34</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8628179860703751</v>
+        <v>0.7767693499662364</v>
       </c>
       <c r="C210" t="n">
-        <v>0.5871349192727162</v>
+        <v>0.1318034290888622</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.1681621081380384</v>
+        <v>0.0914272209449012</v>
       </c>
       <c r="E210" t="n">
         <v>34</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.012964405481776</v>
+        <v>0.8460031631930629</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9692331253156179</v>
+        <v>0.1247051096758372</v>
       </c>
       <c r="D211" t="n">
-        <v>0.4805250618254234</v>
+        <v>0.02929172713110029</v>
       </c>
       <c r="E211" t="n">
         <v>34</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.7612212039373856</v>
+        <v>0.782215073767613</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9327835340593167</v>
+        <v>0.1723051540139476</v>
       </c>
       <c r="D212" t="n">
-        <v>0.2490707086075379</v>
+        <v>0.04547977221843939</v>
       </c>
       <c r="E212" t="n">
         <v>34</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.3766377910720879</v>
+        <v>0.2962149422172782</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1155470987875371</v>
+        <v>0.5156898774182627</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3688112560544313</v>
+        <v>0.1880951803644593</v>
       </c>
       <c r="E213" t="n">
         <v>34</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.511187305064752</v>
+        <v>0.2805913549705714</v>
       </c>
       <c r="C214" t="n">
-        <v>0.564590146989598</v>
+        <v>0.6469213184813271</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8132583078198184</v>
+        <v>0.07248732654810151</v>
       </c>
       <c r="E214" t="n">
         <v>35</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3551752379894754</v>
+        <v>0.6302312261281676</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6839559511384419</v>
+        <v>0.3027228442059293</v>
       </c>
       <c r="D215" t="n">
-        <v>0.4905222945232972</v>
+        <v>0.06704592966590293</v>
       </c>
       <c r="E215" t="n">
         <v>35</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.6828805114420264</v>
+        <v>0.219923757134229</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3547881152604943</v>
+        <v>0.6984221635321636</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8819504228190184</v>
+        <v>0.08165407933360719</v>
       </c>
       <c r="E216" t="n">
         <v>35</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1173925536873397</v>
+        <v>0.5363044147807393</v>
       </c>
       <c r="C217" t="n">
-        <v>0.7274869347820767</v>
+        <v>0.3962270096831009</v>
       </c>
       <c r="D217" t="n">
-        <v>0.565960745048717</v>
+        <v>0.06746857553615973</v>
       </c>
       <c r="E217" t="n">
         <v>35</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.484114967763387</v>
+        <v>0.6898541629399386</v>
       </c>
       <c r="C218" t="n">
-        <v>0.8964356862563025</v>
+        <v>0.2602157925737802</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4594212998087951</v>
+        <v>0.04993004448628097</v>
       </c>
       <c r="E218" t="n">
         <v>35</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.4069150992646801</v>
+        <v>0.6157913902427544</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4204662416259705</v>
+        <v>0.2495891972825129</v>
       </c>
       <c r="D219" t="n">
-        <v>0.05046561600117374</v>
+        <v>0.1346194124747326</v>
       </c>
       <c r="E219" t="n">
         <v>35</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.26108879907038</v>
+        <v>0.8893823400675573</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8044294659017002</v>
+        <v>0.06122990854321385</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.545293732360711</v>
+        <v>0.04938775138922888</v>
       </c>
       <c r="E220" t="n">
         <v>35</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.1994444797096622</v>
+        <v>0.2297621831913023</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.2988085812876429</v>
+        <v>0.3963796824610077</v>
       </c>
       <c r="D221" t="n">
-        <v>0.04421503615625098</v>
+        <v>0.3738581343476901</v>
       </c>
       <c r="E221" t="n">
         <v>35</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.6554962114664039</v>
+        <v>0.2332213003604941</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5410715746940431</v>
+        <v>0.7005590238888615</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9102776908537321</v>
+        <v>0.06621967575064436</v>
       </c>
       <c r="E222" t="n">
         <v>35</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4887725445202336</v>
+        <v>0.6800103279679028</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7009705472745031</v>
+        <v>0.2523991544278312</v>
       </c>
       <c r="D223" t="n">
-        <v>0.370908352558167</v>
+        <v>0.06759051760426626</v>
       </c>
       <c r="E223" t="n">
         <v>35</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.1716911970832204</v>
+        <v>0.3303795656052124</v>
       </c>
       <c r="C224" t="n">
-        <v>0.003852426888567212</v>
+        <v>0.4165364777349356</v>
       </c>
       <c r="D224" t="n">
-        <v>0.1729102226157001</v>
+        <v>0.2530839566598521</v>
       </c>
       <c r="E224" t="n">
         <v>35</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8858189044534679</v>
+        <v>0.825747801021106</v>
       </c>
       <c r="C225" t="n">
-        <v>1.081122141014555</v>
+        <v>0.157447593913564</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9838793534812278</v>
+        <v>0.01680460506533014</v>
       </c>
       <c r="E225" t="n">
         <v>35</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.1814564288197978</v>
+        <v>0.2939005929039409</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.1147845474247534</v>
+        <v>0.3830265671754587</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0289492016646286</v>
+        <v>0.3230728399206003</v>
       </c>
       <c r="E226" t="n">
         <v>35</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.3456691145545995</v>
+        <v>0.2460684336825785</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.1577624897512681</v>
+        <v>0.4600572179873619</v>
       </c>
       <c r="D227" t="n">
-        <v>0.1922856313882969</v>
+        <v>0.2938743483300598</v>
       </c>
       <c r="E227" t="n">
         <v>35</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.2917300985854877</v>
+        <v>0.5883040194675444</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4913461911537411</v>
+        <v>0.2953298616534705</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1713297652000925</v>
+        <v>0.116366118878985</v>
       </c>
       <c r="E228" t="n">
         <v>35</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.2217875973129611</v>
+        <v>0.2613977581888822</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.191654411810791</v>
+        <v>0.3771416077039558</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.02159989133340541</v>
+        <v>0.3614606341071618</v>
       </c>
       <c r="E229" t="n">
         <v>35</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3844580949358298</v>
+        <v>0.5270166032992416</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1492435000087839</v>
+        <v>0.2200843054312925</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.25053488030537</v>
+        <v>0.2528990912694656</v>
       </c>
       <c r="E230" t="n">
         <v>35</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.4912989444587008</v>
+        <v>0.2783772351984121</v>
       </c>
       <c r="C231" t="n">
-        <v>0.3398252599080229</v>
+        <v>0.6285358569359339</v>
       </c>
       <c r="D231" t="n">
-        <v>0.7875603534892659</v>
+        <v>0.09308690786565389</v>
       </c>
       <c r="E231" t="n">
         <v>35</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.4529311393390759</v>
+        <v>0.6710319534602005</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7436919543900391</v>
+        <v>0.2590352840739254</v>
       </c>
       <c r="D232" t="n">
-        <v>0.2902506952250699</v>
+        <v>0.06993276246587402</v>
       </c>
       <c r="E232" t="n">
         <v>35</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3240917088132977</v>
+        <v>0.6147896776320863</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6371018142775726</v>
+        <v>0.301930792206036</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3313987497952256</v>
+        <v>0.08327953016187771</v>
       </c>
       <c r="E233" t="n">
         <v>35</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.2100057865906731</v>
+        <v>0.5523225224965529</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4543061053561885</v>
+        <v>0.3449769865557624</v>
       </c>
       <c r="D234" t="n">
-        <v>0.4406913532752899</v>
+        <v>0.1027004909476847</v>
       </c>
       <c r="E234" t="n">
         <v>35</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.7097488523817307</v>
+        <v>0.2131610699151123</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3248571801357441</v>
+        <v>0.6866519869005367</v>
       </c>
       <c r="D235" t="n">
-        <v>0.7453040566052754</v>
+        <v>0.1001869431843508</v>
       </c>
       <c r="E235" t="n">
         <v>35</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.7609247325621048</v>
+        <v>0.1451123930190229</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.2736837293999473</v>
+        <v>0.6552800760851166</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6006063424459435</v>
+        <v>0.1996075308958606</v>
       </c>
       <c r="E236" t="n">
         <v>35</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.3448237636856225</v>
+        <v>0.1549359155806109</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.4756039175455092</v>
+        <v>0.3187800702417715</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.2839483108050538</v>
+        <v>0.5262840141776174</v>
       </c>
       <c r="E237" t="n">
         <v>35</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0282337090648789</v>
+        <v>0.4759428774411937</v>
       </c>
       <c r="C238" t="n">
-        <v>0.4170118456459863</v>
+        <v>0.4179741225392695</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5152072002654566</v>
+        <v>0.1060830000195365</v>
       </c>
       <c r="E238" t="n">
         <v>35</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.4491254647202954</v>
+        <v>0.2450237059166277</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.05967004802380871</v>
+        <v>0.5367775781368358</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4087381243260098</v>
+        <v>0.2181987159465364</v>
       </c>
       <c r="E239" t="n">
         <v>35</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.9728194340137952</v>
+        <v>0.843093023138922</v>
       </c>
       <c r="C240" t="n">
-        <v>1.137396863025439</v>
+        <v>0.1294169321455012</v>
       </c>
       <c r="D240" t="n">
-        <v>0.3508852310735923</v>
+        <v>0.02749004471557692</v>
       </c>
       <c r="E240" t="n">
         <v>35</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.5051654019582338</v>
+        <v>0.2417202262520741</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.003842348634710391</v>
+        <v>0.558417892393311</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4394368818872744</v>
+        <v>0.1998618813546151</v>
       </c>
       <c r="E241" t="n">
         <v>35</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.2911092349221616</v>
+        <v>0.2321576756048295</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.2405209421065364</v>
+        <v>0.4000928647203792</v>
       </c>
       <c r="D242" t="n">
-        <v>0.008548803104656368</v>
+        <v>0.3677494596747913</v>
       </c>
       <c r="E242" t="n">
         <v>35</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6602427184880149</v>
+        <v>0.734754550416332</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6789694197764242</v>
+        <v>0.1891896207141344</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1029758434993007</v>
+        <v>0.07605582886953371</v>
       </c>
       <c r="E243" t="n">
         <v>35</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.982011607189095</v>
+        <v>0.8554547882132538</v>
       </c>
       <c r="C244" t="n">
-        <v>1.319084189211316</v>
+        <v>0.1373568310915513</v>
       </c>
       <c r="D244" t="n">
-        <v>1.377992946442086</v>
+        <v>0.007188380695194888</v>
       </c>
       <c r="E244" t="n">
         <v>35</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.3519399157342809</v>
+        <v>0.279322407395504</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.01122057411980834</v>
+        <v>0.4978076562332247</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3395547383133891</v>
+        <v>0.2228699363712715</v>
       </c>
       <c r="E245" t="n">
         <v>35</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.7546793049461843</v>
+        <v>0.7586541325247567</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6710037373062714</v>
+        <v>0.1730776340358069</v>
       </c>
       <c r="D246" t="n">
-        <v>0.2228863616184236</v>
+        <v>0.06826823343943626</v>
       </c>
       <c r="E246" t="n">
         <v>35</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2538401448815559</v>
+        <v>0.2277938142219834</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.2733219816705711</v>
+        <v>0.3610070980137038</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.1048069757289056</v>
+        <v>0.4111990877643128</v>
       </c>
       <c r="E247" t="n">
         <v>35</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.627925042561769</v>
+        <v>0.7355526820699835</v>
       </c>
       <c r="C248" t="n">
-        <v>0.7930250974441244</v>
+        <v>0.2208575236447097</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6282495739237604</v>
+        <v>0.04358979428530686</v>
       </c>
       <c r="E248" t="n">
         <v>35</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5768561465750175</v>
+        <v>0.7242283153531061</v>
       </c>
       <c r="C249" t="n">
-        <v>0.937866941198146</v>
+        <v>0.2290123605887658</v>
       </c>
       <c r="D249" t="n">
-        <v>0.4051480496999486</v>
+        <v>0.04675932405812814</v>
       </c>
       <c r="E249" t="n">
         <v>36</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.1394305510075468</v>
+        <v>0.2947885118249835</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.1291733374670531</v>
+        <v>0.3641191585793903</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.02544654229947655</v>
+        <v>0.3410923295956261</v>
       </c>
       <c r="E250" t="n">
         <v>36</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.5472949800350073</v>
+        <v>0.2205411748744359</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.06582877159383088</v>
+        <v>0.5802545544149803</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4969048646796615</v>
+        <v>0.1992042707105839</v>
       </c>
       <c r="E251" t="n">
         <v>36</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.9734615266483018</v>
+        <v>0.8508880462624538</v>
       </c>
       <c r="C252" t="n">
-        <v>1.195070713174371</v>
+        <v>0.1387166008963879</v>
       </c>
       <c r="D252" t="n">
-        <v>1.219057467388476</v>
+        <v>0.01039535284115832</v>
       </c>
       <c r="E252" t="n">
         <v>36</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.817571211309476</v>
+        <v>0.1601738719223104</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.0877429672554654</v>
+        <v>0.6736237023956667</v>
       </c>
       <c r="D253" t="n">
-        <v>0.6531976256638208</v>
+        <v>0.1662024256820231</v>
       </c>
       <c r="E253" t="n">
         <v>36</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.2070328389592224</v>
+        <v>0.4966946303785748</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1978355580556454</v>
+        <v>0.2907965403465229</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.01658698715173631</v>
+        <v>0.2125088292749026</v>
       </c>
       <c r="E254" t="n">
         <v>36</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.4129607152483626</v>
+        <v>0.2173533565663651</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.2192736163415536</v>
+        <v>0.4760306064213863</v>
       </c>
       <c r="D255" t="n">
-        <v>0.197268868863111</v>
+        <v>0.3066160370122481</v>
       </c>
       <c r="E255" t="n">
         <v>36</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.2868068035965733</v>
+        <v>0.5385169995787967</v>
       </c>
       <c r="C256" t="n">
-        <v>0.258627385289015</v>
+        <v>0.2715272035172294</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.01911490471267033</v>
+        <v>0.1899557969039738</v>
       </c>
       <c r="E256" t="n">
         <v>36</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1736862701175926</v>
+        <v>0.4722224500600381</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1526841019126077</v>
+        <v>0.3007234572110735</v>
       </c>
       <c r="D257" t="n">
-        <v>0.001267970627100781</v>
+        <v>0.2270540927288882</v>
       </c>
       <c r="E257" t="n">
         <v>36</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2689027800074797</v>
+        <v>0.2452566125575188</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.2106608844411176</v>
+        <v>0.3989217441194041</v>
       </c>
       <c r="D258" t="n">
-        <v>0.02000353607367653</v>
+        <v>0.3558216433230769</v>
       </c>
       <c r="E258" t="n">
         <v>36</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.02658416116697029</v>
+        <v>0.5006830124448909</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5940582993936652</v>
+        <v>0.3793463141895577</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1415805501485863</v>
+        <v>0.1199706733655514</v>
       </c>
       <c r="E259" t="n">
         <v>36</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.4135339657853822</v>
+        <v>0.6064214798077372</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3705486837759334</v>
+        <v>0.2443751116244712</v>
       </c>
       <c r="D260" t="n">
-        <v>0.01774759019027238</v>
+        <v>0.1492034085677916</v>
       </c>
       <c r="E260" t="n">
         <v>36</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.2426503956060792</v>
+        <v>0.2462646863819787</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2206483984121589</v>
+        <v>0.3807144475535582</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.03003878117642463</v>
+        <v>0.373020866064463</v>
       </c>
       <c r="E261" t="n">
         <v>36</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.007090917215172354</v>
+        <v>0.4360219844667418</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2126928820932593</v>
+        <v>0.373569324638034</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1628987470154117</v>
+        <v>0.1904086908952241</v>
       </c>
       <c r="E262" t="n">
         <v>36</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.2184624580303828</v>
+        <v>0.2587649245789905</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.1960158873079209</v>
+        <v>0.3760100172749751</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.03026431786557564</v>
+        <v>0.3652250581460342</v>
       </c>
       <c r="E263" t="n">
         <v>36</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.004305663390308</v>
+        <v>0.829489732893676</v>
       </c>
       <c r="C264" t="n">
-        <v>0.722223335139522</v>
+        <v>0.1050073685142511</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.2135821936344652</v>
+        <v>0.06550289859207295</v>
       </c>
       <c r="E264" t="n">
         <v>36</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.3494043349785024</v>
+        <v>0.2341650241961779</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.2038534683410253</v>
+        <v>0.435616681036598</v>
       </c>
       <c r="D265" t="n">
-        <v>0.1029894733316024</v>
+        <v>0.3302182947672241</v>
       </c>
       <c r="E265" t="n">
         <v>36</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.2773864245428659</v>
+        <v>0.5466533021064154</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2936594341950005</v>
+        <v>0.272081540248251</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.03903822839740223</v>
+        <v>0.1812651576453336</v>
       </c>
       <c r="E266" t="n">
         <v>36</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.01133198248224038</v>
+        <v>0.451163147674063</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3181006776829415</v>
+        <v>0.3832877056539917</v>
       </c>
       <c r="D267" t="n">
-        <v>0.1582179443748072</v>
+        <v>0.1655491466719455</v>
       </c>
       <c r="E267" t="n">
         <v>36</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.2180761014422175</v>
+        <v>0.5706458972199255</v>
       </c>
       <c r="C268" t="n">
-        <v>0.6034304572095857</v>
+        <v>0.3446777177390932</v>
       </c>
       <c r="D268" t="n">
-        <v>0.4214998428503824</v>
+        <v>0.08467638504098103</v>
       </c>
       <c r="E268" t="n">
         <v>36</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2780553640354939</v>
+        <v>0.2460652577955857</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2046620864944792</v>
+        <v>0.4048627483177014</v>
       </c>
       <c r="D269" t="n">
-        <v>0.03764207169591894</v>
+        <v>0.3490719938867129</v>
       </c>
       <c r="E269" t="n">
         <v>36</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.2452536850910873</v>
+        <v>0.2458858357804995</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.2205542670668432</v>
+        <v>0.3819102625743242</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.02725914462809418</v>
+        <v>0.3722039016451761</v>
       </c>
       <c r="E270" t="n">
         <v>36</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3394052543089079</v>
+        <v>0.5839539019475652</v>
       </c>
       <c r="C271" t="n">
-        <v>0.3781586145892057</v>
+        <v>0.2887608094091225</v>
       </c>
       <c r="D271" t="n">
-        <v>0.2816673327747835</v>
+        <v>0.1272852886433122</v>
       </c>
       <c r="E271" t="n">
         <v>36</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.7035068050914537</v>
+        <v>0.7570789576380529</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7853313584152319</v>
+        <v>0.1967606959510419</v>
       </c>
       <c r="D272" t="n">
-        <v>0.5282706348314544</v>
+        <v>0.0461603464109049</v>
       </c>
       <c r="E272" t="n">
         <v>36</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.494247603128272</v>
+        <v>0.2429336555726939</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.01201470558671044</v>
+        <v>0.5554444648848551</v>
       </c>
       <c r="D273" t="n">
-        <v>0.4391515214450444</v>
+        <v>0.201621879542451</v>
       </c>
       <c r="E273" t="n">
         <v>36</v>
